--- a/英语.xlsx
+++ b/英语.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\Beethoven\Beethoven English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7985379-31A8-49F9-A888-B24236099DE2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADA8BA6-0BA2-4231-99A9-AB8A55D40555}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="1764" windowWidth="8520" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="总目录" sheetId="1" r:id="rId1"/>
@@ -1386,9 +1386,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1472,20 +1472,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{222AC4A8-839F-4EE5-86E3-550A3326B1AF}">
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>43694</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1796,9 +1796,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="E18" s="1"/>
-      <c r="T18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
       <c r="U18" s="8"/>
       <c r="V18" s="8"/>
       <c r="W18" s="8"/>
@@ -1807,11 +1816,22 @@
       <c r="Z18" s="8"/>
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC18" s="8"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>43695</v>
       </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
@@ -1820,8 +1840,9 @@
       <c r="Z19" s="8"/>
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC19" s="8"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>0</v>
       </c>
@@ -1838,38 +1859,26 @@
       <c r="H20" s="5"/>
       <c r="I20" s="6"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="6"/>
-      <c r="U20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="6"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>1</v>
       </c>
@@ -1892,50 +1901,26 @@
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="7">
-        <v>1</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>95</v>
-      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>110</v>
-      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="8">
-        <v>1</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="S21" s="9"/>
-      <c r="U21" s="7">
-        <v>1</v>
-      </c>
-      <c r="V21" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
       <c r="W21" s="8"/>
-      <c r="X21" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="8" t="s">
-        <v>155</v>
-      </c>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
       <c r="Z21" s="8"/>
-      <c r="AA21" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AC21" s="9"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>2</v>
       </c>
@@ -1958,50 +1943,26 @@
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="7">
-        <v>2</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="8">
-        <v>2</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>111</v>
-      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="8">
-        <v>2</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="S22" s="9"/>
-      <c r="U22" s="7">
-        <v>2</v>
-      </c>
-      <c r="V22" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
       <c r="W22" s="8"/>
-      <c r="X22" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
-      <c r="AA22" s="8">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AC22" s="9"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>3</v>
       </c>
@@ -2024,50 +1985,26 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="7">
-        <v>3</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="8"/>
-      <c r="N23" s="8">
-        <v>3</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="8">
-        <v>3</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="S23" s="9"/>
-      <c r="U23" s="7">
-        <v>3</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
       <c r="W23" s="8"/>
-      <c r="X23" s="8">
-        <v>3</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>157</v>
-      </c>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
       <c r="Z23" s="8"/>
-      <c r="AA23" s="8">
-        <v>3</v>
-      </c>
-      <c r="AB23" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AC23" s="9"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A24" s="7">
         <v>4</v>
       </c>
@@ -2090,50 +2027,26 @@
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="8"/>
-      <c r="K24" s="7">
-        <v>4</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>98</v>
-      </c>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="8"/>
-      <c r="N24" s="8">
-        <v>4</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>113</v>
-      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="8">
-        <v>4</v>
-      </c>
-      <c r="R24" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="S24" s="9"/>
-      <c r="U24" s="7">
-        <v>4</v>
-      </c>
-      <c r="V24" s="13" t="s">
-        <v>143</v>
-      </c>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
       <c r="W24" s="8"/>
-      <c r="X24" s="8">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="13" t="s">
-        <v>158</v>
-      </c>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
-      <c r="AA24" s="8">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="AC24" s="9"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>5</v>
       </c>
@@ -2156,50 +2069,26 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
-      <c r="K25" s="7">
-        <v>5</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>99</v>
-      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="8"/>
-      <c r="N25" s="8">
-        <v>5</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>114</v>
-      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="8">
-        <v>5</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="S25" s="9"/>
-      <c r="U25" s="7">
-        <v>5</v>
-      </c>
-      <c r="V25" s="13" t="s">
-        <v>144</v>
-      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
       <c r="W25" s="8"/>
-      <c r="X25" s="8">
-        <v>5</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>159</v>
-      </c>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
-      <c r="AA25" s="8">
-        <v>5</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC25" s="9"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>6</v>
       </c>
@@ -2222,50 +2111,26 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
-      <c r="K26" s="7">
-        <v>6</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>100</v>
-      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
       <c r="M26" s="8"/>
-      <c r="N26" s="8">
-        <v>6</v>
-      </c>
-      <c r="O26" s="13" t="s">
-        <v>115</v>
-      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="8">
-        <v>6</v>
-      </c>
-      <c r="R26" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="S26" s="9"/>
-      <c r="U26" s="7">
-        <v>6</v>
-      </c>
-      <c r="V26" s="13" t="s">
-        <v>145</v>
-      </c>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
       <c r="W26" s="8"/>
-      <c r="X26" s="8">
-        <v>6</v>
-      </c>
-      <c r="Y26" s="13" t="s">
-        <v>160</v>
-      </c>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
-      <c r="AA26" s="8">
-        <v>6</v>
-      </c>
-      <c r="AB26" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AC26" s="9"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>7</v>
       </c>
@@ -2288,50 +2153,26 @@
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
-      <c r="K27" s="7">
-        <v>7</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>101</v>
-      </c>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
       <c r="M27" s="8"/>
-      <c r="N27" s="8">
-        <v>7</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>116</v>
-      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="8">
-        <v>7</v>
-      </c>
-      <c r="R27" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="S27" s="9"/>
-      <c r="U27" s="7">
-        <v>7</v>
-      </c>
-      <c r="V27" s="13" t="s">
-        <v>146</v>
-      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
       <c r="W27" s="8"/>
-      <c r="X27" s="8">
-        <v>7</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>161</v>
-      </c>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
-      <c r="AA27" s="8">
-        <v>7</v>
-      </c>
-      <c r="AB27" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AC27" s="9"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="7">
         <v>8</v>
       </c>
@@ -2354,50 +2195,26 @@
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="8"/>
-      <c r="K28" s="7">
-        <v>8</v>
-      </c>
-      <c r="L28" s="13" t="s">
-        <v>102</v>
-      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="8"/>
-      <c r="N28" s="8">
-        <v>8</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>117</v>
-      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="8">
-        <v>8</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="S28" s="9"/>
-      <c r="U28" s="7">
-        <v>8</v>
-      </c>
-      <c r="V28" s="13" t="s">
-        <v>147</v>
-      </c>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
       <c r="W28" s="8"/>
-      <c r="X28" s="8">
-        <v>8</v>
-      </c>
-      <c r="Y28" s="13" t="s">
-        <v>162</v>
-      </c>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
-      <c r="AA28" s="8">
-        <v>8</v>
-      </c>
-      <c r="AB28" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AC28" s="9"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>9</v>
       </c>
@@ -2420,50 +2237,26 @@
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="7">
-        <v>9</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>103</v>
-      </c>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="8"/>
-      <c r="N29" s="8">
-        <v>9</v>
-      </c>
-      <c r="O29" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="8">
-        <v>9</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="S29" s="9"/>
-      <c r="U29" s="7">
-        <v>9</v>
-      </c>
-      <c r="V29" s="13" t="s">
-        <v>148</v>
-      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
       <c r="W29" s="8"/>
-      <c r="X29" s="8">
-        <v>9</v>
-      </c>
-      <c r="Y29" s="13" t="s">
-        <v>163</v>
-      </c>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
-      <c r="AA29" s="8">
-        <v>9</v>
-      </c>
-      <c r="AB29" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC29" s="9"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>10</v>
       </c>
@@ -2486,50 +2279,26 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="7">
-        <v>10</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>104</v>
-      </c>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
       <c r="M30" s="8"/>
-      <c r="N30" s="8">
-        <v>10</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>119</v>
-      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="8">
-        <v>10</v>
-      </c>
-      <c r="R30" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="S30" s="9"/>
-      <c r="U30" s="7">
-        <v>10</v>
-      </c>
-      <c r="V30" s="13" t="s">
-        <v>149</v>
-      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="8">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="13" t="s">
-        <v>164</v>
-      </c>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
-      <c r="AA30" s="8">
-        <v>10</v>
-      </c>
-      <c r="AB30" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC30" s="9"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>11</v>
       </c>
@@ -2552,50 +2321,26 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="7">
-        <v>11</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>105</v>
-      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
       <c r="M31" s="8"/>
-      <c r="N31" s="8">
-        <v>11</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="8">
-        <v>11</v>
-      </c>
-      <c r="R31" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="S31" s="9"/>
-      <c r="U31" s="7">
-        <v>11</v>
-      </c>
-      <c r="V31" s="13" t="s">
-        <v>150</v>
-      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="8">
-        <v>11</v>
-      </c>
-      <c r="Y31" s="13" t="s">
-        <v>165</v>
-      </c>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
-      <c r="AA31" s="8">
-        <v>11</v>
-      </c>
-      <c r="AB31" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="AC31" s="9"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="7">
         <v>12</v>
       </c>
@@ -2618,50 +2363,26 @@
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="8"/>
-      <c r="K32" s="7">
-        <v>12</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>106</v>
-      </c>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="8"/>
-      <c r="N32" s="8">
-        <v>12</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>121</v>
-      </c>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
       <c r="P32" s="8"/>
-      <c r="Q32" s="8">
-        <v>12</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="S32" s="9"/>
-      <c r="U32" s="7">
-        <v>12</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>151</v>
-      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
       <c r="W32" s="8"/>
-      <c r="X32" s="8">
-        <v>12</v>
-      </c>
-      <c r="Y32" s="13" t="s">
-        <v>166</v>
-      </c>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
-      <c r="AA32" s="8">
-        <v>12</v>
-      </c>
-      <c r="AB32" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC32" s="9"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>13</v>
       </c>
@@ -2684,50 +2405,26 @@
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="8"/>
-      <c r="K33" s="7">
-        <v>13</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>107</v>
-      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="8"/>
-      <c r="N33" s="8">
-        <v>13</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
       <c r="P33" s="8"/>
-      <c r="Q33" s="8">
-        <v>13</v>
-      </c>
-      <c r="R33" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="S33" s="9"/>
-      <c r="U33" s="7">
-        <v>13</v>
-      </c>
-      <c r="V33" s="13" t="s">
-        <v>152</v>
-      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
       <c r="W33" s="8"/>
-      <c r="X33" s="8">
-        <v>13</v>
-      </c>
-      <c r="Y33" s="13" t="s">
-        <v>167</v>
-      </c>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
-      <c r="AA33" s="8">
-        <v>13</v>
-      </c>
-      <c r="AB33" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC33" s="9"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="7">
         <v>14</v>
       </c>
@@ -2750,50 +2447,26 @@
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="8"/>
-      <c r="K34" s="7">
-        <v>14</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>108</v>
-      </c>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
       <c r="M34" s="8"/>
-      <c r="N34" s="8">
-        <v>14</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>123</v>
-      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
       <c r="P34" s="8"/>
-      <c r="Q34" s="8">
-        <v>14</v>
-      </c>
-      <c r="R34" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="S34" s="9"/>
-      <c r="U34" s="7">
-        <v>14</v>
-      </c>
-      <c r="V34" s="13" t="s">
-        <v>153</v>
-      </c>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
       <c r="W34" s="8"/>
-      <c r="X34" s="8">
-        <v>14</v>
-      </c>
-      <c r="Y34" s="13" t="s">
-        <v>168</v>
-      </c>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
-      <c r="AA34" s="8">
-        <v>14</v>
-      </c>
-      <c r="AB34" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC34" s="9"/>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>15</v>
       </c>
@@ -2816,55 +2489,69 @@
       </c>
       <c r="I35" s="12"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="10">
-        <v>15</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11">
-        <v>15</v>
-      </c>
-      <c r="O35" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11">
-        <v>15</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="S35" s="12"/>
-      <c r="U35" s="10">
-        <v>15</v>
-      </c>
-      <c r="V35" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11">
-        <v>15</v>
-      </c>
-      <c r="Y35" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11">
-        <v>15</v>
-      </c>
-      <c r="AB35" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="AC35" s="12"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>43696</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+        <v>43698</v>
+      </c>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>0</v>
       </c>
@@ -2896,575 +2583,1272 @@
       <c r="R38" s="5"/>
       <c r="S38" s="6"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="7">
         <v>1</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8">
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>199</v>
+        <v>110</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8">
         <v>1</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>214</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="K39" s="7">
         <v>1</v>
       </c>
-      <c r="L39" s="8"/>
+      <c r="L39" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="M39" s="8"/>
       <c r="N39" s="8">
         <v>1</v>
       </c>
-      <c r="O39" s="8"/>
+      <c r="O39" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8">
         <v>1</v>
       </c>
-      <c r="R39" s="8"/>
+      <c r="R39" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>2</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8">
         <v>2</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>200</v>
+        <v>111</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8">
         <v>2</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>215</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="K40" s="7">
         <v>2</v>
       </c>
-      <c r="L40" s="8"/>
+      <c r="L40" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="M40" s="8"/>
       <c r="N40" s="8">
         <v>2</v>
       </c>
-      <c r="O40" s="8"/>
+      <c r="O40" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="P40" s="8"/>
       <c r="Q40" s="8">
         <v>2</v>
       </c>
-      <c r="R40" s="8"/>
+      <c r="R40" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="S40" s="9"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>3</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>187</v>
+        <v>97</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8">
         <v>3</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8">
         <v>3</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="K41" s="7">
         <v>3</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8">
         <v>3</v>
       </c>
-      <c r="O41" s="8"/>
+      <c r="O41" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="P41" s="8"/>
       <c r="Q41" s="8">
         <v>3</v>
       </c>
-      <c r="R41" s="8"/>
+      <c r="R41" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="7">
         <v>4</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8">
         <v>4</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8">
         <v>4</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="K42" s="7">
         <v>4</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="13" t="s">
+        <v>143</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8">
         <v>4</v>
       </c>
-      <c r="O42" s="8"/>
+      <c r="O42" s="13" t="s">
+        <v>158</v>
+      </c>
       <c r="P42" s="8"/>
       <c r="Q42" s="8">
         <v>4</v>
       </c>
-      <c r="R42" s="8"/>
+      <c r="R42" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="S42" s="9"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>5</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8">
         <v>5</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8">
         <v>5</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>218</v>
+        <v>129</v>
       </c>
       <c r="I43" s="9"/>
       <c r="K43" s="7">
         <v>5</v>
       </c>
-      <c r="L43" s="8"/>
+      <c r="L43" s="13" t="s">
+        <v>144</v>
+      </c>
       <c r="M43" s="8"/>
       <c r="N43" s="8">
         <v>5</v>
       </c>
-      <c r="O43" s="8"/>
+      <c r="O43" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="P43" s="8"/>
       <c r="Q43" s="8">
         <v>5</v>
       </c>
-      <c r="R43" s="8"/>
+      <c r="R43" s="13" t="s">
+        <v>174</v>
+      </c>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>6</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8">
         <v>6</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8">
         <v>6</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="K44" s="7">
         <v>6</v>
       </c>
-      <c r="L44" s="8"/>
+      <c r="L44" s="13" t="s">
+        <v>145</v>
+      </c>
       <c r="M44" s="8"/>
       <c r="N44" s="8">
         <v>6</v>
       </c>
-      <c r="O44" s="8"/>
+      <c r="O44" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="P44" s="8"/>
       <c r="Q44" s="8">
         <v>6</v>
       </c>
-      <c r="R44" s="8"/>
+      <c r="R44" s="13" t="s">
+        <v>175</v>
+      </c>
       <c r="S44" s="9"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="7">
         <v>7</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8">
         <v>7</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8">
         <v>7</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>220</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="K45" s="7">
         <v>7</v>
       </c>
-      <c r="L45" s="8"/>
+      <c r="L45" s="13" t="s">
+        <v>146</v>
+      </c>
       <c r="M45" s="8"/>
       <c r="N45" s="8">
         <v>7</v>
       </c>
-      <c r="O45" s="8"/>
+      <c r="O45" s="13" t="s">
+        <v>161</v>
+      </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8">
         <v>7</v>
       </c>
-      <c r="R45" s="8"/>
+      <c r="R45" s="13" t="s">
+        <v>176</v>
+      </c>
       <c r="S45" s="9"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>8</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8">
         <v>8</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="F46" s="8"/>
       <c r="G46" s="8">
         <v>8</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="I46" s="9"/>
       <c r="K46" s="7">
         <v>8</v>
       </c>
-      <c r="L46" s="8"/>
+      <c r="L46" s="13" t="s">
+        <v>147</v>
+      </c>
       <c r="M46" s="8"/>
       <c r="N46" s="8">
         <v>8</v>
       </c>
-      <c r="O46" s="8"/>
+      <c r="O46" s="13" t="s">
+        <v>162</v>
+      </c>
       <c r="P46" s="8"/>
       <c r="Q46" s="8">
         <v>8</v>
       </c>
-      <c r="R46" s="8"/>
+      <c r="R46" s="13" t="s">
+        <v>177</v>
+      </c>
       <c r="S46" s="9"/>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>9</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>192</v>
+        <v>103</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8">
         <v>9</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="F47" s="8"/>
       <c r="G47" s="8">
         <v>9</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>222</v>
+        <v>133</v>
       </c>
       <c r="I47" s="9"/>
       <c r="K47" s="7">
         <v>9</v>
       </c>
-      <c r="L47" s="8"/>
+      <c r="L47" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="M47" s="8"/>
       <c r="N47" s="8">
         <v>9</v>
       </c>
-      <c r="O47" s="8"/>
+      <c r="O47" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="P47" s="8"/>
       <c r="Q47" s="8">
         <v>9</v>
       </c>
-      <c r="R47" s="8"/>
+      <c r="R47" s="13" t="s">
+        <v>178</v>
+      </c>
       <c r="S47" s="9"/>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>10</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8">
         <v>10</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="F48" s="8"/>
       <c r="G48" s="8">
         <v>10</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="I48" s="9"/>
       <c r="K48" s="7">
         <v>10</v>
       </c>
-      <c r="L48" s="8"/>
+      <c r="L48" s="13" t="s">
+        <v>149</v>
+      </c>
       <c r="M48" s="8"/>
       <c r="N48" s="8">
         <v>10</v>
       </c>
-      <c r="O48" s="8"/>
+      <c r="O48" s="13" t="s">
+        <v>164</v>
+      </c>
       <c r="P48" s="8"/>
       <c r="Q48" s="8">
         <v>10</v>
       </c>
-      <c r="R48" s="8"/>
+      <c r="R48" s="13" t="s">
+        <v>179</v>
+      </c>
       <c r="S48" s="9"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>11</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8">
         <v>11</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8">
         <v>11</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="I49" s="9"/>
       <c r="K49" s="7">
         <v>11</v>
       </c>
-      <c r="L49" s="8"/>
+      <c r="L49" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="M49" s="8"/>
       <c r="N49" s="8">
         <v>11</v>
       </c>
-      <c r="O49" s="8"/>
+      <c r="O49" s="13" t="s">
+        <v>165</v>
+      </c>
       <c r="P49" s="8"/>
       <c r="Q49" s="8">
         <v>11</v>
       </c>
-      <c r="R49" s="8"/>
+      <c r="R49" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="S49" s="9"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>12</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8">
         <v>12</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8">
         <v>12</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>225</v>
+        <v>136</v>
       </c>
       <c r="I50" s="9"/>
       <c r="K50" s="7">
         <v>12</v>
       </c>
-      <c r="L50" s="8"/>
+      <c r="L50" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="M50" s="8"/>
       <c r="N50" s="8">
         <v>12</v>
       </c>
-      <c r="O50" s="8"/>
+      <c r="O50" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="P50" s="8"/>
       <c r="Q50" s="8">
         <v>12</v>
       </c>
-      <c r="R50" s="8"/>
+      <c r="R50" s="13" t="s">
+        <v>181</v>
+      </c>
       <c r="S50" s="9"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>13</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8">
         <v>13</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8">
         <v>13</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>226</v>
+        <v>137</v>
       </c>
       <c r="I51" s="9"/>
       <c r="K51" s="7">
         <v>13</v>
       </c>
-      <c r="L51" s="8"/>
+      <c r="L51" s="13" t="s">
+        <v>152</v>
+      </c>
       <c r="M51" s="8"/>
       <c r="N51" s="8">
         <v>13</v>
       </c>
-      <c r="O51" s="8"/>
+      <c r="O51" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="P51" s="8"/>
       <c r="Q51" s="8">
         <v>13</v>
       </c>
-      <c r="R51" s="8"/>
+      <c r="R51" s="13" t="s">
+        <v>182</v>
+      </c>
       <c r="S51" s="9"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" s="7">
         <v>14</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8">
         <v>14</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8">
         <v>14</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="I52" s="9"/>
       <c r="K52" s="7">
         <v>14</v>
       </c>
-      <c r="L52" s="8"/>
+      <c r="L52" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="M52" s="8"/>
       <c r="N52" s="8">
         <v>14</v>
       </c>
-      <c r="O52" s="8"/>
+      <c r="O52" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="P52" s="8"/>
       <c r="Q52" s="8">
         <v>14</v>
       </c>
-      <c r="R52" s="8"/>
+      <c r="R52" s="13" t="s">
+        <v>183</v>
+      </c>
       <c r="S52" s="9"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>15</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11">
         <v>15</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11">
         <v>15</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>228</v>
+        <v>139</v>
       </c>
       <c r="I53" s="12"/>
       <c r="K53" s="10">
         <v>15</v>
       </c>
-      <c r="L53" s="11"/>
+      <c r="L53" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="M53" s="11"/>
       <c r="N53" s="11">
         <v>15</v>
       </c>
-      <c r="O53" s="11"/>
+      <c r="O53" s="11" t="s">
+        <v>169</v>
+      </c>
       <c r="P53" s="11"/>
       <c r="Q53" s="11">
         <v>15</v>
       </c>
-      <c r="R53" s="11"/>
+      <c r="R53" s="11" t="s">
+        <v>184</v>
+      </c>
       <c r="S53" s="12"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>43696</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
+      <c r="K56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R56" s="5"/>
+      <c r="S56" s="6"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>1</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8">
+        <v>1</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="K57" s="7">
+        <v>1</v>
+      </c>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8">
+        <v>1</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8">
+        <v>1</v>
+      </c>
+      <c r="R57" s="8"/>
+      <c r="S57" s="9"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>2</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8">
+        <v>2</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8">
+        <v>2</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="K58" s="7">
+        <v>2</v>
+      </c>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8">
+        <v>2</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8">
+        <v>2</v>
+      </c>
+      <c r="R58" s="8"/>
+      <c r="S58" s="9"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>3</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8">
+        <v>3</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8">
+        <v>3</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="K59" s="7">
+        <v>3</v>
+      </c>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8">
+        <v>3</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8">
+        <v>3</v>
+      </c>
+      <c r="R59" s="8"/>
+      <c r="S59" s="9"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>4</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8">
+        <v>4</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8">
+        <v>4</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="K60" s="7">
+        <v>4</v>
+      </c>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8">
+        <v>4</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8">
+        <v>4</v>
+      </c>
+      <c r="R60" s="8"/>
+      <c r="S60" s="9"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>5</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8">
+        <v>5</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8">
+        <v>5</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="K61" s="7">
+        <v>5</v>
+      </c>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8">
+        <v>5</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8">
+        <v>5</v>
+      </c>
+      <c r="R61" s="8"/>
+      <c r="S61" s="9"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" s="7">
+        <v>6</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8">
+        <v>6</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8">
+        <v>6</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="K62" s="7">
+        <v>6</v>
+      </c>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8">
+        <v>6</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8">
+        <v>6</v>
+      </c>
+      <c r="R62" s="8"/>
+      <c r="S62" s="9"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" s="7">
+        <v>7</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8">
+        <v>7</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8">
+        <v>7</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="K63" s="7">
+        <v>7</v>
+      </c>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8">
+        <v>7</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8">
+        <v>7</v>
+      </c>
+      <c r="R63" s="8"/>
+      <c r="S63" s="9"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" s="7">
+        <v>8</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8">
+        <v>8</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8">
+        <v>8</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="K64" s="7">
+        <v>8</v>
+      </c>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8">
+        <v>8</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8">
+        <v>8</v>
+      </c>
+      <c r="R64" s="8"/>
+      <c r="S64" s="9"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" s="7">
+        <v>9</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8">
+        <v>9</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8">
+        <v>9</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="K65" s="7">
+        <v>9</v>
+      </c>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8">
+        <v>9</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8">
+        <v>9</v>
+      </c>
+      <c r="R65" s="8"/>
+      <c r="S65" s="9"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>10</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8">
+        <v>10</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8">
+        <v>10</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="K66" s="7">
+        <v>10</v>
+      </c>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8">
+        <v>10</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8">
+        <v>10</v>
+      </c>
+      <c r="R66" s="8"/>
+      <c r="S66" s="9"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" s="7">
+        <v>11</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8">
+        <v>11</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8">
+        <v>11</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="K67" s="7">
+        <v>11</v>
+      </c>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8">
+        <v>11</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8">
+        <v>11</v>
+      </c>
+      <c r="R67" s="8"/>
+      <c r="S67" s="9"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A68" s="7">
+        <v>12</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8">
+        <v>12</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8">
+        <v>12</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="K68" s="7">
+        <v>12</v>
+      </c>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8">
+        <v>12</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8">
+        <v>12</v>
+      </c>
+      <c r="R68" s="8"/>
+      <c r="S68" s="9"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" s="7">
+        <v>13</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8">
+        <v>13</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8">
+        <v>13</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="K69" s="7">
+        <v>13</v>
+      </c>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8">
+        <v>13</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8">
+        <v>13</v>
+      </c>
+      <c r="R69" s="8"/>
+      <c r="S69" s="9"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" s="7">
+        <v>14</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8">
+        <v>14</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8">
+        <v>14</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="K70" s="7">
+        <v>14</v>
+      </c>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8">
+        <v>14</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8">
+        <v>14</v>
+      </c>
+      <c r="R70" s="8"/>
+      <c r="S70" s="9"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>15</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11">
+        <v>15</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11">
+        <v>15</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I71" s="12"/>
+      <c r="K71" s="10">
+        <v>15</v>
+      </c>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11">
+        <v>15</v>
+      </c>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11">
+        <v>15</v>
+      </c>
+      <c r="R71" s="11"/>
+      <c r="S71" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
